--- a/src/test/resources/testdata/WebAutomationTestData.xlsx
+++ b/src/test/resources/testdata/WebAutomationTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19380" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15825" windowHeight="6510"/>
   </bookViews>
   <sheets>
     <sheet name="physicianportal" sheetId="1" r:id="rId1"/>
@@ -20,74 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>WriteReview</t>
-  </si>
-  <si>
-    <t>ReviewTitle</t>
-  </si>
-  <si>
-    <t>Review</t>
-  </si>
-  <si>
-    <t>NickName</t>
-  </si>
-  <si>
-    <t>ZipCode</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>BirthMonth</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>RecommendRating</t>
-  </si>
-  <si>
-    <t>OverallRating</t>
-  </si>
-  <si>
-    <t>Cigniti</t>
-  </si>
-  <si>
-    <t>abc@cigniti.com</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Its is good product to use. No side effects.</t>
-  </si>
-  <si>
-    <t>AgeRange</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>BirthYear</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>18to24</t>
-  </si>
-  <si>
-    <t>Vaseline Review</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -109,7 +42,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,13 +51,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,21 +81,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -432,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -442,103 +384,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:K3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="2" customWidth="1"/>
-    <col min="6" max="10" width="9.140625" style="2"/>
-    <col min="11" max="11" width="20.140625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="26.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" customWidth="1"/>
+    <col min="6" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="20.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5">
-        <v>502032</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>16</v>
-      </c>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>